--- a/data/GPT4_verification.xlsx
+++ b/data/GPT4_verification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alice/Documents/workHard/lab/userCentricEvaluation/URS/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alice/Documents/workHard/Lab_Project/userCentricEvaluation/UserCentric/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82075A05-B861-E343-8DEC-3667166A3663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0D9DF9-FFF8-9245-8866-9742D971A8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="-19220" windowWidth="27040" windowHeight="15880" xr2:uid="{5A19A608-76A5-0942-A39C-132800D77866}"/>
+    <workbookView xWindow="6540" yWindow="-21060" windowWidth="27040" windowHeight="15880" xr2:uid="{5A19A608-76A5-0942-A39C-132800D77866}"/>
   </bookViews>
   <sheets>
     <sheet name="SolveProblemGPT" sheetId="1" r:id="rId1"/>
@@ -705,9 +705,6 @@
     <t>通过zeek脚本，怎样避免串行通信错误？</t>
   </si>
   <si>
-    <t>烟草花叶病毒属外壳蛋白进入叶绿体的已知机制有哪些</t>
-  </si>
-  <si>
     <t>烟草花叶病毒进叶绿体的路径</t>
   </si>
   <si>
@@ -1502,9 +1499,6 @@
     <t>联邦学习在模型构建中如何保护用户隐私？</t>
   </si>
   <si>
-    <t>联邦学习与传统机器学习相比的主要优势是什么？</t>
-  </si>
-  <si>
     <t>在现实场景中，联邦学习如何解决分布式数据分析问题？</t>
   </si>
   <si>
@@ -1940,9 +1934,6 @@
     <t>解释癌症分型</t>
   </si>
   <si>
-    <t>癌症分型依据是什么？</t>
-  </si>
-  <si>
     <t>不同癌症类型常见的治疗方法有哪些？</t>
   </si>
   <si>
@@ -2015,9 +2006,6 @@
     <t>专业知识</t>
   </si>
   <si>
-    <t>溶酶体酶的释放或外泄造成的细胞或组织性损伤</t>
-  </si>
-  <si>
     <t>哪些因素会导致溶酶体酶外泄并损伤细胞？</t>
   </si>
   <si>
@@ -2220,9 +2208,6 @@
   </si>
   <si>
     <t>lm-eval-harness支持哪些类型的自然语言处理任务？</t>
-  </si>
-  <si>
-    <t>纯流体的粘度测试</t>
   </si>
   <si>
     <t>如何精确测量纯水的粘度？</t>
@@ -2610,9 +2595,6 @@
     <t>构思外宣故事内容</t>
   </si>
   <si>
-    <t>设计生鲜超市logo</t>
-  </si>
-  <si>
     <t>短视频脚本</t>
   </si>
   <si>
@@ -2626,9 +2608,6 @@
   </si>
   <si>
     <t>写文章的思路</t>
-  </si>
-  <si>
-    <t>给我写个睡前故事</t>
   </si>
   <si>
     <t>设计一个logo</t>
@@ -2796,9 +2775,6 @@
     <t>自有品牌营销</t>
   </si>
   <si>
-    <t>编写slogan，并延伸藏头诗等形式</t>
-  </si>
-  <si>
     <t>给灯笼起个名字</t>
   </si>
   <si>
@@ -2986,9 +2962,6 @@
     <t>请问有哪些适合儿童的睡前故事能培养情感认知？</t>
   </si>
   <si>
-    <t>无法决定午餐吃什么，你有什么建议？</t>
-  </si>
-  <si>
     <t>选购电子产品时如何快速做出决定？</t>
   </si>
   <si>
@@ -3049,9 +3022,6 @@
     <t>如何找到一种新方法，减少机器学习模型的训练时间？</t>
   </si>
   <si>
-    <t>能否提供一个创新的经济学研究课题，专注于后疫情时代消费者行为的变化？</t>
-  </si>
-  <si>
     <t>我需要一个独特的化学实验想法，用以展示氧化还原反应在日常生活中的应用，有什么提议？</t>
   </si>
   <si>
@@ -3172,12 +3142,6 @@
     <t>如何有效减少和预防科学界的性别歧视？</t>
   </si>
   <si>
-    <t>怎么利用EEG探索冥想对大脑活动的影响？</t>
-  </si>
-  <si>
-    <t>有哪些创意方法通过EEG研究音乐和情绪之间的关系？</t>
-  </si>
-  <si>
     <t>EEG在游戏设计中有哪些新兴的应用思路？</t>
   </si>
   <si>
@@ -3196,9 +3160,6 @@
     <t>能否建议一个适合提高文档撰写速度的软件或工具？</t>
   </si>
   <si>
-    <t>能否给我几个关于环保主题的创意slogan提案？</t>
-  </si>
-  <si>
     <t>怎样才能创作一个以公司创新精神为主题的藏头诗？</t>
   </si>
   <si>
@@ -3259,9 +3220,6 @@
     <t>当前科技行业中哪些领域最需要创新解决方案？</t>
   </si>
   <si>
-    <t>如何创作一个引人入胜的啤酒广告语？</t>
-  </si>
-  <si>
     <t>能否提供一个适合红酒品牌的浪漫宣传标语？</t>
   </si>
   <si>
@@ -3347,9 +3305,6 @@
   </si>
   <si>
     <t>怎样决策才能最大程度降低后悔？</t>
-  </si>
-  <si>
-    <t>什么主题适合开发进行教育内容的YouTube频道？</t>
   </si>
   <si>
     <t>创建YouTube频道时，关于科技趋势的频道主题怎么选？</t>
@@ -4937,6 +4892,66 @@
   </si>
   <si>
     <t>你能推荐个好用的AI生成图片软件，偏向艺术创作吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法决定午餐吃什么，你有什么建议？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否给我几个关于环保主题的创意slogan提案？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何创作一个引人入胜的啤酒广告语？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给我写个睡前故事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计生鲜超市logo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写slogan，并延伸藏头诗等形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么主题适合开发进行教育内容的YouTube频道？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么利用EEG探索冥想对大脑活动的影响？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有哪些创意方法通过EEG研究音乐和情绪之间的关系？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否提供一个创新的经济学研究课题，专注于后疫情时代消费者行为的变化？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联邦学习与传统机器学习相比的主要优势是什么？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>癌症分型依据是什么？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯流体的粘度测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶酶体酶的释放或外泄造成的细胞或组织性损伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟草花叶病毒属外壳蛋白进入叶绿体的已知机制有哪些</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5370,8 +5385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0F364A-5379-D747-AEB6-A6D3169ED916}">
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B17:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6207,275 +6222,275 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:4" ht="17">
+      <c r="A60" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B60" t="s">
         <v>216</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>217</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>218</v>
-      </c>
-      <c r="D60" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18">
       <c r="A61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" t="s">
         <v>220</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>221</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>222</v>
-      </c>
-      <c r="D61" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18">
       <c r="A62" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" t="s">
         <v>224</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>225</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>226</v>
-      </c>
-      <c r="D62" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18">
       <c r="A63" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" t="s">
         <v>228</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>229</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>230</v>
-      </c>
-      <c r="D63" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18">
       <c r="A64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" t="s">
         <v>232</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>233</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>234</v>
-      </c>
-      <c r="D64" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18">
       <c r="A65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" t="s">
         <v>236</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>237</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>238</v>
-      </c>
-      <c r="D65" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18">
       <c r="A66" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B66" t="s">
         <v>240</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>241</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>242</v>
-      </c>
-      <c r="D66" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18">
       <c r="A67" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" t="s">
         <v>244</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>245</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>246</v>
-      </c>
-      <c r="D67" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18">
       <c r="A68" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" t="s">
         <v>248</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>249</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>250</v>
-      </c>
-      <c r="D68" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18">
       <c r="A69" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" t="s">
         <v>252</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>253</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>254</v>
-      </c>
-      <c r="D69" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18">
       <c r="A70" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B70" t="s">
         <v>256</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>257</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>258</v>
-      </c>
-      <c r="D70" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18">
       <c r="A71" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" t="s">
         <v>260</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>261</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>262</v>
-      </c>
-      <c r="D71" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18">
       <c r="A72" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B72" t="s">
         <v>264</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>265</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>266</v>
-      </c>
-      <c r="D72" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18">
       <c r="A73" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" t="s">
         <v>268</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>269</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>270</v>
-      </c>
-      <c r="D73" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18">
       <c r="A74" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74" t="s">
         <v>272</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>273</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>274</v>
-      </c>
-      <c r="D74" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18">
       <c r="A75" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B75" t="s">
         <v>276</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>277</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>278</v>
-      </c>
-      <c r="D75" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="18">
       <c r="A76" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B76" t="s">
         <v>280</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>281</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>282</v>
-      </c>
-      <c r="D76" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18">
       <c r="A77" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B77" t="s">
         <v>284</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>285</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>286</v>
-      </c>
-      <c r="D77" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18">
       <c r="A78" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B78" t="s">
         <v>288</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>289</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>290</v>
-      </c>
-      <c r="D78" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18">
       <c r="A79" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s">
         <v>21</v>
@@ -6489,46 +6504,46 @@
     </row>
     <row r="80" spans="1:4" ht="18">
       <c r="A80" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
         <v>293</v>
-      </c>
-      <c r="B80" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18">
       <c r="A81" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B81" t="s">
         <v>295</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>296</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>297</v>
-      </c>
-      <c r="D81" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="18">
       <c r="A82" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B82" t="s">
         <v>299</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>300</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>301</v>
-      </c>
-      <c r="D82" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18">
       <c r="A83" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s">
         <v>21</v>
@@ -6542,7 +6557,7 @@
     </row>
     <row r="84" spans="1:4" ht="18">
       <c r="A84" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s">
         <v>21</v>
@@ -6550,7 +6565,7 @@
     </row>
     <row r="85" spans="1:4" ht="18">
       <c r="A85" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s">
         <v>21</v>
@@ -6564,21 +6579,21 @@
     </row>
     <row r="86" spans="1:4" ht="18">
       <c r="A86" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B86" t="s">
         <v>306</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>307</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>308</v>
-      </c>
-      <c r="D86" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="18">
       <c r="A87" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B87" t="s">
         <v>21</v>
@@ -6592,35 +6607,35 @@
     </row>
     <row r="88" spans="1:4" ht="18">
       <c r="A88" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B88" t="s">
         <v>311</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>312</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>313</v>
-      </c>
-      <c r="D88" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="18">
       <c r="A89" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B89" t="s">
         <v>315</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>316</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>317</v>
-      </c>
-      <c r="D89" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="18">
       <c r="A90" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B90" t="s">
         <v>21</v>
@@ -6634,119 +6649,119 @@
     </row>
     <row r="91" spans="1:4" ht="18">
       <c r="A91" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B91" t="s">
         <v>320</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>321</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>322</v>
-      </c>
-      <c r="D91" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="18">
       <c r="A92" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B92" t="s">
         <v>324</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>325</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>326</v>
-      </c>
-      <c r="D92" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="18">
       <c r="A93" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93" t="s">
         <v>328</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>329</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>330</v>
-      </c>
-      <c r="D93" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="18">
       <c r="A94" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B94" t="s">
         <v>332</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>333</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>334</v>
-      </c>
-      <c r="D94" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="18">
       <c r="A95" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B95" t="s">
         <v>336</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>337</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>338</v>
-      </c>
-      <c r="D95" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="18">
       <c r="A96" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B96" t="s">
         <v>340</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>341</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>342</v>
-      </c>
-      <c r="D96" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="18">
       <c r="A97" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B97" t="s">
         <v>344</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>345</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>346</v>
-      </c>
-      <c r="D97" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="18">
       <c r="A98" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" t="s">
         <v>348</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>349</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>350</v>
-      </c>
-      <c r="D98" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="18">
       <c r="A99" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B99" t="s">
         <v>21</v>
@@ -6760,7 +6775,7 @@
     </row>
     <row r="100" spans="1:4" ht="18">
       <c r="A100" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B100" t="s">
         <v>21</v>
@@ -6774,77 +6789,77 @@
     </row>
     <row r="101" spans="1:4" ht="18">
       <c r="A101" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B101" t="s">
         <v>354</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>355</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>356</v>
-      </c>
-      <c r="D101" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="18">
       <c r="A102" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B102" t="s">
         <v>358</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>359</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>360</v>
-      </c>
-      <c r="D102" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="18">
       <c r="A103" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B103" t="s">
         <v>362</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>363</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>364</v>
-      </c>
-      <c r="D103" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="18">
       <c r="A104" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B104" t="s">
         <v>366</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>367</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>368</v>
-      </c>
-      <c r="D104" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="18">
       <c r="A105" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B105" t="s">
         <v>370</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>371</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>372</v>
-      </c>
-      <c r="D105" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="18">
       <c r="A106" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B106" t="s">
         <v>21</v>
@@ -6858,212 +6873,212 @@
     </row>
     <row r="107" spans="1:4" ht="18">
       <c r="A107" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B107" t="s">
         <v>375</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>376</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>377</v>
-      </c>
-      <c r="D107" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="18">
       <c r="A108" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B108" t="s">
         <v>379</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>380</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>381</v>
-      </c>
-      <c r="D108" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="18">
       <c r="A109" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B109" t="s">
         <v>383</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>384</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>385</v>
-      </c>
-      <c r="D109" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="18">
       <c r="A110" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B110" t="s">
         <v>387</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>388</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>389</v>
-      </c>
-      <c r="D110" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="18">
       <c r="A111" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B111" t="s">
         <v>391</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>392</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>393</v>
-      </c>
-      <c r="D111" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="18">
       <c r="A112" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B112" t="s">
         <v>395</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>396</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>397</v>
-      </c>
-      <c r="D112" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="18">
       <c r="A113" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B113" t="s">
         <v>399</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>400</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>401</v>
-      </c>
-      <c r="D113" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="18">
       <c r="A114" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B114" t="s">
         <v>403</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>404</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>405</v>
-      </c>
-      <c r="D114" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="18">
       <c r="A115" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B115" t="s">
         <v>407</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>408</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>409</v>
-      </c>
-      <c r="D115" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="18">
       <c r="A116" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B116" t="s">
         <v>411</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>412</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>413</v>
-      </c>
-      <c r="D116" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="18">
       <c r="A117" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B117" t="s">
         <v>415</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>416</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>417</v>
-      </c>
-      <c r="D117" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="18">
       <c r="A118" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B118" t="s">
         <v>419</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>420</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>421</v>
-      </c>
-      <c r="D118" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="18">
       <c r="A119" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B119" t="s">
         <v>423</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>424</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>425</v>
-      </c>
-      <c r="D119" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="18">
       <c r="A120" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B120" t="s">
         <v>427</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>428</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>429</v>
-      </c>
-      <c r="D120" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="18">
       <c r="A121" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B121" t="s">
         <v>431</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>432</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>433</v>
-      </c>
-      <c r="D121" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="18">
@@ -7071,88 +7086,88 @@
         <v>43</v>
       </c>
       <c r="B122" t="s">
+        <v>434</v>
+      </c>
+      <c r="C122" t="s">
         <v>435</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>436</v>
-      </c>
-      <c r="D122" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="18">
       <c r="A123" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B123" t="s">
         <v>438</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>439</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>440</v>
-      </c>
-      <c r="D123" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="18">
       <c r="A124" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B124" t="s">
         <v>442</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>443</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>444</v>
-      </c>
-      <c r="D124" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="18">
       <c r="A125" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B125" t="s">
         <v>446</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>447</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>448</v>
-      </c>
-      <c r="D125" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="18">
       <c r="A126" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B126" t="s">
         <v>450</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>451</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>452</v>
-      </c>
-      <c r="D126" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="18">
       <c r="A127" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B127" t="s">
         <v>454</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>455</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>456</v>
-      </c>
-      <c r="D127" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="18">
       <c r="A128" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B128" t="s">
         <v>21</v>
@@ -7166,16 +7181,16 @@
     </row>
     <row r="129" spans="1:4" ht="18">
       <c r="A129" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B129" t="s">
         <v>459</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>460</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>461</v>
-      </c>
-      <c r="D129" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="18">
@@ -7183,60 +7198,60 @@
         <v>43</v>
       </c>
       <c r="B130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C130" t="s">
         <v>463</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>464</v>
-      </c>
-      <c r="D130" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="18">
       <c r="A131" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B131" t="s">
         <v>466</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>467</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>468</v>
-      </c>
-      <c r="D131" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="18">
       <c r="A132" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B132" t="s">
         <v>470</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>471</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>472</v>
-      </c>
-      <c r="D132" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="18">
       <c r="A133" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B133" t="s">
         <v>474</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>475</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>476</v>
-      </c>
-      <c r="D133" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="18">
       <c r="A134" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B134" t="s">
         <v>21</v>
@@ -7250,63 +7265,63 @@
     </row>
     <row r="135" spans="1:4" ht="18">
       <c r="A135" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B135" t="s">
         <v>479</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D135" t="s">
         <v>480</v>
-      </c>
-      <c r="C135" t="s">
-        <v>481</v>
-      </c>
-      <c r="D135" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="18">
       <c r="A136" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B136" t="s">
+        <v>482</v>
+      </c>
+      <c r="C136" t="s">
         <v>483</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D136" t="s">
         <v>484</v>
-      </c>
-      <c r="C136" t="s">
-        <v>485</v>
-      </c>
-      <c r="D136" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="18">
       <c r="A137" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B137" t="s">
+        <v>486</v>
+      </c>
+      <c r="C137" t="s">
         <v>487</v>
       </c>
-      <c r="B137" t="s">
+      <c r="D137" t="s">
         <v>488</v>
-      </c>
-      <c r="C137" t="s">
-        <v>489</v>
-      </c>
-      <c r="D137" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="18">
       <c r="A138" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B138" t="s">
+        <v>490</v>
+      </c>
+      <c r="C138" t="s">
         <v>491</v>
       </c>
-      <c r="B138" t="s">
+      <c r="D138" t="s">
         <v>492</v>
-      </c>
-      <c r="C138" t="s">
-        <v>493</v>
-      </c>
-      <c r="D138" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="18">
       <c r="A139" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B139" t="s">
         <v>21</v>
@@ -7320,77 +7335,77 @@
     </row>
     <row r="140" spans="1:4" ht="18">
       <c r="A140" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B140" t="s">
+        <v>495</v>
+      </c>
+      <c r="C140" t="s">
         <v>496</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D140" t="s">
         <v>497</v>
-      </c>
-      <c r="C140" t="s">
-        <v>498</v>
-      </c>
-      <c r="D140" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="18">
       <c r="A141" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B141" t="s">
+        <v>499</v>
+      </c>
+      <c r="C141" t="s">
         <v>500</v>
       </c>
-      <c r="B141" t="s">
+      <c r="D141" t="s">
         <v>501</v>
-      </c>
-      <c r="C141" t="s">
-        <v>502</v>
-      </c>
-      <c r="D141" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="18">
       <c r="A142" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B142" t="s">
+        <v>503</v>
+      </c>
+      <c r="C142" t="s">
         <v>504</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D142" t="s">
         <v>505</v>
-      </c>
-      <c r="C142" t="s">
-        <v>506</v>
-      </c>
-      <c r="D142" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="18">
       <c r="A143" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B143" t="s">
+        <v>507</v>
+      </c>
+      <c r="C143" t="s">
         <v>508</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D143" t="s">
         <v>509</v>
-      </c>
-      <c r="C143" t="s">
-        <v>510</v>
-      </c>
-      <c r="D143" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="18">
       <c r="A144" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B144" t="s">
+        <v>511</v>
+      </c>
+      <c r="C144" t="s">
         <v>512</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D144" t="s">
         <v>513</v>
-      </c>
-      <c r="C144" t="s">
-        <v>514</v>
-      </c>
-      <c r="D144" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="18">
       <c r="A145" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B145" t="s">
         <v>21</v>
@@ -7404,71 +7419,71 @@
     </row>
     <row r="146" spans="1:4" ht="18">
       <c r="A146" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B146" t="s">
+        <v>516</v>
+      </c>
+      <c r="C146" t="s">
         <v>517</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D146" t="s">
         <v>518</v>
-      </c>
-      <c r="C146" t="s">
-        <v>519</v>
-      </c>
-      <c r="D146" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="18">
       <c r="A147" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B147" t="s">
+        <v>520</v>
+      </c>
+      <c r="C147" t="s">
         <v>521</v>
       </c>
-      <c r="B147" t="s">
+      <c r="D147" t="s">
         <v>522</v>
-      </c>
-      <c r="C147" t="s">
-        <v>523</v>
-      </c>
-      <c r="D147" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="18">
       <c r="A148" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B148" t="s">
+        <v>524</v>
+      </c>
+      <c r="C148" t="s">
         <v>525</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D148" t="s">
         <v>526</v>
-      </c>
-      <c r="C148" t="s">
-        <v>527</v>
-      </c>
-      <c r="D148" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="18">
       <c r="A149" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B149" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="18">
       <c r="A150" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B150" t="s">
+        <v>530</v>
+      </c>
+      <c r="C150" t="s">
         <v>531</v>
       </c>
-      <c r="B150" t="s">
+      <c r="D150" t="s">
         <v>532</v>
-      </c>
-      <c r="C150" t="s">
-        <v>533</v>
-      </c>
-      <c r="D150" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="18">
       <c r="A151" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B151" t="s">
         <v>21</v>
@@ -7482,105 +7497,105 @@
     </row>
     <row r="152" spans="1:4" ht="18">
       <c r="A152" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B152" t="s">
+        <v>535</v>
+      </c>
+      <c r="C152" t="s">
         <v>536</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D152" t="s">
         <v>537</v>
-      </c>
-      <c r="C152" t="s">
-        <v>538</v>
-      </c>
-      <c r="D152" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="18">
       <c r="A153" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B153" t="s">
+        <v>539</v>
+      </c>
+      <c r="C153" t="s">
         <v>540</v>
       </c>
-      <c r="B153" t="s">
+      <c r="D153" t="s">
         <v>541</v>
-      </c>
-      <c r="C153" t="s">
-        <v>542</v>
-      </c>
-      <c r="D153" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="18">
       <c r="A154" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B154" t="s">
+        <v>543</v>
+      </c>
+      <c r="C154" t="s">
         <v>544</v>
       </c>
-      <c r="B154" t="s">
+      <c r="D154" t="s">
         <v>545</v>
-      </c>
-      <c r="C154" t="s">
-        <v>546</v>
-      </c>
-      <c r="D154" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="18">
       <c r="A155" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B155" t="s">
+        <v>547</v>
+      </c>
+      <c r="C155" t="s">
         <v>548</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D155" t="s">
         <v>549</v>
-      </c>
-      <c r="C155" t="s">
-        <v>550</v>
-      </c>
-      <c r="D155" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="18">
       <c r="A156" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B156" t="s">
+        <v>551</v>
+      </c>
+      <c r="C156" t="s">
         <v>552</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D156" t="s">
         <v>553</v>
-      </c>
-      <c r="C156" t="s">
-        <v>554</v>
-      </c>
-      <c r="D156" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="18">
       <c r="A157" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B157" t="s">
+        <v>555</v>
+      </c>
+      <c r="C157" t="s">
         <v>556</v>
       </c>
-      <c r="B157" t="s">
+      <c r="D157" t="s">
         <v>557</v>
-      </c>
-      <c r="C157" t="s">
-        <v>558</v>
-      </c>
-      <c r="D157" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="18">
       <c r="A158" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B158" t="s">
+        <v>559</v>
+      </c>
+      <c r="C158" t="s">
         <v>560</v>
       </c>
-      <c r="B158" t="s">
+      <c r="D158" t="s">
         <v>561</v>
-      </c>
-      <c r="C158" t="s">
-        <v>562</v>
-      </c>
-      <c r="D158" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="18">
       <c r="A159" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B159" t="s">
         <v>21</v>
@@ -7594,49 +7609,49 @@
     </row>
     <row r="160" spans="1:4" ht="18">
       <c r="A160" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B160" t="s">
+        <v>564</v>
+      </c>
+      <c r="C160" t="s">
         <v>565</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" t="s">
         <v>566</v>
-      </c>
-      <c r="C160" t="s">
-        <v>567</v>
-      </c>
-      <c r="D160" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="18">
       <c r="A161" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B161" t="s">
+        <v>568</v>
+      </c>
+      <c r="C161" t="s">
         <v>569</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D161" t="s">
         <v>570</v>
-      </c>
-      <c r="C161" t="s">
-        <v>571</v>
-      </c>
-      <c r="D161" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="18">
       <c r="A162" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B162" t="s">
+        <v>572</v>
+      </c>
+      <c r="C162" t="s">
         <v>573</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D162" t="s">
         <v>574</v>
-      </c>
-      <c r="C162" t="s">
-        <v>575</v>
-      </c>
-      <c r="D162" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="18">
       <c r="A163" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B163" t="s">
         <v>21</v>
@@ -7653,74 +7668,74 @@
         <v>20</v>
       </c>
       <c r="B164" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="18">
       <c r="A165" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B165" t="s">
+        <v>580</v>
+      </c>
+      <c r="C165" t="s">
         <v>581</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
         <v>582</v>
-      </c>
-      <c r="C165" t="s">
-        <v>583</v>
-      </c>
-      <c r="D165" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="18">
       <c r="A166" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B166" t="s">
+        <v>584</v>
+      </c>
+      <c r="C166" t="s">
         <v>585</v>
       </c>
-      <c r="B166" t="s">
+      <c r="D166" t="s">
         <v>586</v>
-      </c>
-      <c r="C166" t="s">
-        <v>587</v>
-      </c>
-      <c r="D166" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="18">
       <c r="A167" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B167" t="s">
+        <v>588</v>
+      </c>
+      <c r="C167" t="s">
         <v>589</v>
       </c>
-      <c r="B167" t="s">
+      <c r="D167" t="s">
         <v>590</v>
-      </c>
-      <c r="C167" t="s">
-        <v>591</v>
-      </c>
-      <c r="D167" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="18">
       <c r="A168" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B168" t="s">
+        <v>592</v>
+      </c>
+      <c r="C168" t="s">
         <v>593</v>
       </c>
-      <c r="B168" t="s">
+      <c r="D168" t="s">
         <v>594</v>
-      </c>
-      <c r="C168" t="s">
-        <v>595</v>
-      </c>
-      <c r="D168" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="18">
       <c r="A169" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B169" t="s">
         <v>21</v>
@@ -7734,133 +7749,133 @@
     </row>
     <row r="170" spans="1:4" ht="18">
       <c r="A170" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B170" t="s">
+        <v>597</v>
+      </c>
+      <c r="C170" t="s">
         <v>598</v>
       </c>
-      <c r="B170" t="s">
+      <c r="D170" t="s">
         <v>599</v>
-      </c>
-      <c r="C170" t="s">
-        <v>600</v>
-      </c>
-      <c r="D170" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="18">
       <c r="A171" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B171" t="s">
+        <v>601</v>
+      </c>
+      <c r="C171" t="s">
         <v>602</v>
       </c>
-      <c r="B171" t="s">
+      <c r="D171" t="s">
         <v>603</v>
-      </c>
-      <c r="C171" t="s">
-        <v>604</v>
-      </c>
-      <c r="D171" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="18">
       <c r="A172" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B172" t="s">
+        <v>605</v>
+      </c>
+      <c r="C172" t="s">
         <v>606</v>
       </c>
-      <c r="B172" t="s">
+      <c r="D172" t="s">
         <v>607</v>
-      </c>
-      <c r="C172" t="s">
-        <v>608</v>
-      </c>
-      <c r="D172" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="18">
       <c r="A173" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B173" t="s">
+        <v>609</v>
+      </c>
+      <c r="C173" t="s">
         <v>610</v>
       </c>
-      <c r="B173" t="s">
+      <c r="D173" t="s">
         <v>611</v>
-      </c>
-      <c r="C173" t="s">
-        <v>612</v>
-      </c>
-      <c r="D173" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="18">
       <c r="A174" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B174" t="s">
+        <v>613</v>
+      </c>
+      <c r="C174" t="s">
         <v>614</v>
       </c>
-      <c r="B174" t="s">
+      <c r="D174" t="s">
         <v>615</v>
-      </c>
-      <c r="C174" t="s">
-        <v>616</v>
-      </c>
-      <c r="D174" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="18">
       <c r="A175" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B175" t="s">
+        <v>617</v>
+      </c>
+      <c r="C175" t="s">
         <v>618</v>
       </c>
-      <c r="B175" t="s">
+      <c r="D175" t="s">
         <v>619</v>
-      </c>
-      <c r="C175" t="s">
-        <v>620</v>
-      </c>
-      <c r="D175" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="18">
       <c r="A176" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B176" t="s">
+        <v>621</v>
+      </c>
+      <c r="C176" t="s">
         <v>622</v>
       </c>
-      <c r="B176" t="s">
+      <c r="D176" t="s">
         <v>623</v>
-      </c>
-      <c r="C176" t="s">
-        <v>624</v>
-      </c>
-      <c r="D176" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="18">
       <c r="A177" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C177" t="s">
+        <v>625</v>
+      </c>
+      <c r="D177" t="s">
         <v>626</v>
-      </c>
-      <c r="B177" t="s">
-        <v>627</v>
-      </c>
-      <c r="C177" t="s">
-        <v>628</v>
-      </c>
-      <c r="D177" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="18">
       <c r="A178" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B178" t="s">
+        <v>628</v>
+      </c>
+      <c r="C178" t="s">
+        <v>629</v>
+      </c>
+      <c r="D178" t="s">
         <v>630</v>
-      </c>
-      <c r="B178" t="s">
-        <v>631</v>
-      </c>
-      <c r="C178" t="s">
-        <v>632</v>
-      </c>
-      <c r="D178" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="18">
       <c r="A179" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B179" t="s">
         <v>21</v>
@@ -7874,105 +7889,105 @@
     </row>
     <row r="180" spans="1:4" ht="18">
       <c r="A180" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B180" t="s">
+        <v>633</v>
+      </c>
+      <c r="C180" t="s">
+        <v>634</v>
+      </c>
+      <c r="D180" t="s">
         <v>635</v>
-      </c>
-      <c r="B180" t="s">
-        <v>636</v>
-      </c>
-      <c r="C180" t="s">
-        <v>637</v>
-      </c>
-      <c r="D180" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="18">
       <c r="A181" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B181" t="s">
+        <v>637</v>
+      </c>
+      <c r="C181" t="s">
+        <v>638</v>
+      </c>
+      <c r="D181" t="s">
         <v>639</v>
-      </c>
-      <c r="B181" t="s">
-        <v>640</v>
-      </c>
-      <c r="C181" t="s">
-        <v>641</v>
-      </c>
-      <c r="D181" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="18">
       <c r="A182" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B182" t="s">
+        <v>641</v>
+      </c>
+      <c r="C182" t="s">
+        <v>642</v>
+      </c>
+      <c r="D182" t="s">
         <v>643</v>
-      </c>
-      <c r="B182" t="s">
-        <v>644</v>
-      </c>
-      <c r="C182" t="s">
-        <v>645</v>
-      </c>
-      <c r="D182" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="18">
       <c r="A183" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B183" t="s">
+        <v>645</v>
+      </c>
+      <c r="C183" t="s">
+        <v>646</v>
+      </c>
+      <c r="D183" t="s">
         <v>647</v>
-      </c>
-      <c r="B183" t="s">
-        <v>648</v>
-      </c>
-      <c r="C183" t="s">
-        <v>649</v>
-      </c>
-      <c r="D183" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="18">
       <c r="A184" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B184" t="s">
+        <v>21</v>
+      </c>
+      <c r="C184" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="17">
+      <c r="A185" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B185" t="s">
+        <v>649</v>
+      </c>
+      <c r="C185" t="s">
+        <v>650</v>
+      </c>
+      <c r="D185" t="s">
         <v>651</v>
-      </c>
-      <c r="B184" t="s">
-        <v>21</v>
-      </c>
-      <c r="C184" t="s">
-        <v>21</v>
-      </c>
-      <c r="D184" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="18">
-      <c r="A185" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B185" t="s">
-        <v>653</v>
-      </c>
-      <c r="C185" t="s">
-        <v>654</v>
-      </c>
-      <c r="D185" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="18">
       <c r="A186" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B186" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C186" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D186" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="18">
       <c r="A187" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B187" t="s">
         <v>21</v>
@@ -7986,63 +8001,63 @@
     </row>
     <row r="188" spans="1:4" ht="18">
       <c r="A188" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B188" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C188" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D188" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="18">
       <c r="A189" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B189" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C189" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D189" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="18">
       <c r="A190" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B190" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C190" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D190" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="18">
       <c r="A191" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B191" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C191" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D191" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="18">
       <c r="A192" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B192" t="s">
         <v>21</v>
@@ -8056,86 +8071,86 @@
     </row>
     <row r="193" spans="1:4" ht="18">
       <c r="A193" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B193" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C193" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D193" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="18">
       <c r="A194" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B194" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C194" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D194" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="18">
       <c r="A195" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B195" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C195" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D195" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="18">
       <c r="A196" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B196" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C196" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D196" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="18">
       <c r="A197" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B197" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C197" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D197" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="18">
       <c r="A198" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B198" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C198" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D198" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="18">
@@ -8154,119 +8169,119 @@
     </row>
     <row r="200" spans="1:4" ht="18">
       <c r="A200" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B200" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C200" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D200" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="18">
       <c r="A201" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B201" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C201" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D201" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="18">
       <c r="A202" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B202" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C202" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D202" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="18">
       <c r="A203" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B203" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C203" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D203" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="18">
       <c r="A204" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B204" t="s">
+        <v>714</v>
+      </c>
+      <c r="C204" t="s">
+        <v>715</v>
+      </c>
+      <c r="D204" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="17">
+      <c r="A205" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B205" t="s">
         <v>717</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C205" t="s">
         <v>718</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D205" t="s">
         <v>719</v>
-      </c>
-      <c r="D204" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="18">
-      <c r="A205" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="B205" t="s">
-        <v>722</v>
-      </c>
-      <c r="C205" t="s">
-        <v>723</v>
-      </c>
-      <c r="D205" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="18">
       <c r="A206" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B206" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C206" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D206" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="18">
       <c r="A207" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B207" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C207" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D207" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="18">
       <c r="A208" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B208" t="s">
         <v>21</v>
@@ -8280,35 +8295,35 @@
     </row>
     <row r="209" spans="1:4" ht="18">
       <c r="A209" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B209" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C209" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D209" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="18">
       <c r="A210" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B210" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C210" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D210" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="18">
       <c r="A211" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B211" t="s">
         <v>21</v>
@@ -8316,63 +8331,63 @@
     </row>
     <row r="212" spans="1:4" ht="18">
       <c r="A212" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B212" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C212" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D212" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="18">
       <c r="A213" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B213" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C213" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D213" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="18">
       <c r="A214" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B214" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C214" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D214" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="18">
       <c r="A215" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B215" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C215" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D215" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="18">
       <c r="A216" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B216" t="s">
         <v>21</v>
@@ -8380,113 +8395,113 @@
     </row>
     <row r="217" spans="1:4" ht="18">
       <c r="A217" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B217" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="18">
       <c r="A218" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B218" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C218" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D218" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="18">
       <c r="A219" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B219" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C219" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D219" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="18">
       <c r="A220" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B220" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C220" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D220" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="18">
       <c r="A221" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B221" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C221" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D221" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="18">
       <c r="A222" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B222" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C222" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D222" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="18">
       <c r="A223" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B223" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C223" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D223" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="18">
       <c r="A224" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B224" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C224" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D224" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="18">
       <c r="A225" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B225" t="s">
         <v>21</v>
@@ -8500,21 +8515,21 @@
     </row>
     <row r="226" spans="1:4" ht="18">
       <c r="A226" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B226" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C226" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="D226" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="18">
       <c r="A227" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B227" t="s">
         <v>21</v>
@@ -8522,21 +8537,21 @@
     </row>
     <row r="228" spans="1:4" ht="18">
       <c r="A228" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B228" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C228" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D228" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="18">
       <c r="A229" s="1" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B229" t="s">
         <v>21</v>
@@ -8550,21 +8565,21 @@
     </row>
     <row r="230" spans="1:4" ht="18">
       <c r="A230" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B230" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C230" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D230" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="18">
       <c r="A231" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B231" t="s">
         <v>21</v>
@@ -8578,119 +8593,119 @@
     </row>
     <row r="232" spans="1:4" ht="18">
       <c r="A232" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B232" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C232" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D232" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="18">
       <c r="A233" s="1" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B233" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C233" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="D233" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="18">
       <c r="A234" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B234" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C234" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="D234" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="18">
       <c r="A235" s="1" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B235" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C235" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="D235" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="18">
       <c r="A236" s="1" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B236" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C236" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D236" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="18">
       <c r="A237" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B237" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C237" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="D237" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="18">
       <c r="A238" s="1" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B238" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C238" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D238" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="18">
       <c r="A239" s="1" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B239" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C239" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D239" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="18">
       <c r="A240" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B240" t="s">
         <v>21</v>
@@ -8704,16 +8719,16 @@
     </row>
     <row r="241" spans="1:4" ht="18">
       <c r="A241" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B241" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C241" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D241" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -8726,8 +8741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F938BD-BEB2-5740-83D5-FF12B97FF297}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8752,105 +8767,105 @@
     </row>
     <row r="2" spans="1:4" ht="18">
       <c r="A2" s="2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B2" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="C2" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="D2" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18">
       <c r="A3" s="1" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B3" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C3" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="D3" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18">
       <c r="A4" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B4" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="C4" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="D4" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18">
       <c r="A5" s="1" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B5" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="C5" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="D5" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18">
       <c r="A6" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B6" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="C6" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="D6" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18">
       <c r="A7" s="1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B7" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="C7" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="D7" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18">
       <c r="A8" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B8" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="C8" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="D8" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18">
-      <c r="A9" s="1" t="s">
-        <v>850</v>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17">
+      <c r="A9" s="3" t="s">
+        <v>1560</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -8858,21 +8873,21 @@
     </row>
     <row r="10" spans="1:4" ht="18">
       <c r="A10" s="1" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B10" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="C10" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="D10" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18">
       <c r="A11" s="1" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -8886,63 +8901,63 @@
     </row>
     <row r="12" spans="1:4" ht="18">
       <c r="A12" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B12" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="C12" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="D12" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18">
       <c r="A13" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B13" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="C13" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="D13" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18">
       <c r="A14" s="1" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B14" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="C14" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="D14" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18">
-      <c r="A15" s="1" t="s">
-        <v>856</v>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17">
+      <c r="A15" s="3" t="s">
+        <v>1559</v>
       </c>
       <c r="B15" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="C15" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="D15" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18">
       <c r="A16" s="1" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -8950,21 +8965,21 @@
     </row>
     <row r="17" spans="1:4" ht="18">
       <c r="A17" s="2" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="B17" t="s">
-        <v>954</v>
+        <v>1556</v>
       </c>
       <c r="C17" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="D17" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18">
       <c r="A18" s="1" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -8972,116 +8987,116 @@
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19" s="1" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B19" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C19" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="D19" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18">
       <c r="A20" s="1" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B20" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="C20" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="D20" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
       <c r="A21" s="1" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B21" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="D21" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18">
       <c r="A22" s="1" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B22" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="C22" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="D22" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18">
       <c r="A23" s="1" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B23" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="C23" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="D23" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
       <c r="A24" s="2" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="B24" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="C24" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="D24" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
       <c r="A25" s="1" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B25" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="C25" t="s">
-        <v>975</v>
+        <v>1565</v>
       </c>
       <c r="D25" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18">
       <c r="A26" s="1" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="B26" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="C26" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="D26" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18">
       <c r="A27" s="1" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -9095,7 +9110,7 @@
     </row>
     <row r="28" spans="1:4" ht="18">
       <c r="A28" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -9103,7 +9118,7 @@
     </row>
     <row r="29" spans="1:4" ht="18">
       <c r="A29" s="1" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -9117,21 +9132,21 @@
     </row>
     <row r="30" spans="1:4" ht="18">
       <c r="A30" s="1" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="B30" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="C30" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="D30" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18">
       <c r="A31" s="1" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
@@ -9139,7 +9154,7 @@
     </row>
     <row r="32" spans="1:4" ht="18">
       <c r="A32" s="1" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -9147,119 +9162,119 @@
     </row>
     <row r="33" spans="1:4" ht="18">
       <c r="A33" s="1" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B33" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="C33" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="D33" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18">
       <c r="A34" s="1" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B34" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="C34" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="D34" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18">
       <c r="A35" s="1" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B35" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="C35" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="D35" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18">
       <c r="A36" s="1" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B36" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="C36" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="D36" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18">
       <c r="A37" s="1" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B37" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C37" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="D37" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17">
       <c r="A38" s="3" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B38" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="C38" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="D38" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18">
       <c r="A39" s="1" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B39" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="C39" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="D39" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18">
       <c r="A40" s="1" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B40" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="C40" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="D40" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18">
       <c r="A41" s="1" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
@@ -9273,63 +9288,63 @@
     </row>
     <row r="42" spans="1:4" ht="18">
       <c r="A42" s="1" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B42" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="C42" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="D42" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18">
       <c r="A43" s="1" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B43" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="C43" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="D43" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18">
       <c r="A44" s="1" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B44" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="C44" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="D44" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18">
       <c r="A45" s="1" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B45" t="s">
-        <v>1016</v>
+        <v>1563</v>
       </c>
       <c r="C45" t="s">
-        <v>1017</v>
+        <v>1564</v>
       </c>
       <c r="D45" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18">
       <c r="A46" s="1" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -9337,7 +9352,7 @@
     </row>
     <row r="47" spans="1:4" ht="18">
       <c r="A47" s="1" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
@@ -9351,32 +9366,32 @@
     </row>
     <row r="48" spans="1:4" ht="18">
       <c r="A48" s="1" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B48" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="D48" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18">
       <c r="A49" s="1" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="B49" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="C49" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="D49" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18">
       <c r="A50" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -9390,57 +9405,57 @@
     </row>
     <row r="51" spans="1:4" ht="18">
       <c r="A51" s="1" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18">
-      <c r="A52" s="1" t="s">
-        <v>892</v>
+    <row r="52" spans="1:4" ht="17">
+      <c r="A52" s="3" t="s">
+        <v>1561</v>
       </c>
       <c r="B52" t="s">
-        <v>1024</v>
+        <v>1557</v>
       </c>
       <c r="C52" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="D52" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18">
       <c r="A53" s="1" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="B53" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="C53" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="D53" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18">
       <c r="A54" s="1" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="B54" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="C54" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="D54" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18">
       <c r="A55" s="1" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
@@ -9451,7 +9466,7 @@
     </row>
     <row r="56" spans="1:4" ht="18">
       <c r="A56" s="1" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
@@ -9465,77 +9480,77 @@
     </row>
     <row r="57" spans="1:4" ht="18">
       <c r="A57" s="1" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="B57" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="C57" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="D57" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18">
       <c r="A58" s="1" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="B58" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="C58" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="D58" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18">
       <c r="A59" s="1" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="B59" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="C59" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="D59" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18">
       <c r="A60" s="1" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B60" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="C60" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="D60" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18">
       <c r="A61" s="1" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="B61" t="s">
-        <v>1045</v>
+        <v>1558</v>
       </c>
       <c r="C61" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="D61" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18">
       <c r="A62" s="1" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -9543,49 +9558,49 @@
     </row>
     <row r="63" spans="1:4" ht="18">
       <c r="A63" s="1" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="B63" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="C63" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="D63" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="21">
       <c r="A64" s="5" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B64" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="C64" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="D64" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18">
       <c r="A65" s="1" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="B65" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="C65" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="D65" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18">
       <c r="A66" s="1" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -9593,7 +9608,7 @@
     </row>
     <row r="67" spans="1:4" ht="18">
       <c r="A67" s="1" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
@@ -9607,7 +9622,7 @@
     </row>
     <row r="68" spans="1:4" ht="18">
       <c r="A68" s="1" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
@@ -9621,91 +9636,91 @@
     </row>
     <row r="69" spans="1:4" ht="18">
       <c r="A69" s="1" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="B69" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="C69" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="D69" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18">
       <c r="A70" s="1" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="B70" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="C70" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="D70" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18">
       <c r="A71" s="1" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="B71" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="C71" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="D71" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18">
       <c r="A72" s="1" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B72" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="C72" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="D72" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18">
       <c r="A73" s="1" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="B73" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="C73" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="D73" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18">
       <c r="A74" s="1" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="B74" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="C74" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
       <c r="D74" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18">
       <c r="A75" s="1" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -9719,58 +9734,58 @@
     </row>
     <row r="76" spans="1:4" ht="18">
       <c r="A76" s="1" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="B76" t="s">
-        <v>1075</v>
+        <v>1562</v>
       </c>
       <c r="C76" t="s">
-        <v>1076</v>
+        <v>1061</v>
       </c>
       <c r="D76" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18">
       <c r="A77" s="1" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="B77" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="C77" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="D77" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18">
       <c r="A78" s="1" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="B78" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="C78" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="D78" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18">
       <c r="A79" s="1" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="B79" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="C79" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="D79" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -9809,35 +9824,35 @@
     </row>
     <row r="2" spans="1:4" ht="18">
       <c r="A2" s="1" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="B2" t="s">
-        <v>1158</v>
+        <v>1143</v>
       </c>
       <c r="C2" t="s">
-        <v>1159</v>
+        <v>1144</v>
       </c>
       <c r="D2" t="s">
-        <v>1160</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
       <c r="A3" s="3" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="B3" t="s">
-        <v>1161</v>
+        <v>1146</v>
       </c>
       <c r="C3" t="s">
-        <v>1162</v>
+        <v>1147</v>
       </c>
       <c r="D3" t="s">
-        <v>1163</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18">
       <c r="A4" s="1" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -9845,7 +9860,7 @@
     </row>
     <row r="5" spans="1:4" ht="18">
       <c r="A5" s="1" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -9853,7 +9868,7 @@
     </row>
     <row r="6" spans="1:4" ht="18">
       <c r="A6" s="1" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -9861,7 +9876,7 @@
     </row>
     <row r="7" spans="1:4" ht="18">
       <c r="A7" s="1" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -9869,7 +9884,7 @@
     </row>
     <row r="8" spans="1:4" ht="18">
       <c r="A8" s="1" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -9877,49 +9892,49 @@
     </row>
     <row r="9" spans="1:4" ht="18">
       <c r="A9" s="1" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="B9" t="s">
-        <v>1329</v>
+        <v>1314</v>
       </c>
       <c r="C9" t="s">
-        <v>1330</v>
+        <v>1315</v>
       </c>
       <c r="D9" t="s">
-        <v>1331</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18">
       <c r="A10" s="1" t="s">
-        <v>1095</v>
+        <v>1080</v>
       </c>
       <c r="B10" t="s">
-        <v>1164</v>
+        <v>1149</v>
       </c>
       <c r="C10" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="D10" t="s">
-        <v>1166</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18">
       <c r="A11" s="1" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="B11" t="s">
-        <v>1167</v>
+        <v>1152</v>
       </c>
       <c r="C11" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D11" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18">
       <c r="A12" s="1" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -9927,21 +9942,21 @@
     </row>
     <row r="13" spans="1:4" ht="18">
       <c r="A13" s="1" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="B13" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="C13" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="D13" t="s">
-        <v>1172</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18">
       <c r="A14" s="1" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -9955,105 +9970,105 @@
     </row>
     <row r="15" spans="1:4" ht="18">
       <c r="A15" s="1" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="B15" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="C15" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="D15" t="s">
-        <v>1175</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18">
       <c r="A16" s="1" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="B16" t="s">
-        <v>1176</v>
+        <v>1161</v>
       </c>
       <c r="C16" t="s">
-        <v>1177</v>
+        <v>1162</v>
       </c>
       <c r="D16" t="s">
-        <v>1178</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
       <c r="A17" s="1" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
       <c r="B17" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="C17" t="s">
-        <v>1180</v>
+        <v>1165</v>
       </c>
       <c r="D17" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18">
       <c r="A18" s="1" t="s">
-        <v>1103</v>
+        <v>1088</v>
       </c>
       <c r="B18" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="C18" t="s">
-        <v>1183</v>
+        <v>1168</v>
       </c>
       <c r="D18" t="s">
-        <v>1184</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19" s="1" t="s">
-        <v>1104</v>
+        <v>1089</v>
       </c>
       <c r="B19" t="s">
-        <v>1185</v>
+        <v>1170</v>
       </c>
       <c r="C19" t="s">
-        <v>1186</v>
+        <v>1171</v>
       </c>
       <c r="D19" t="s">
-        <v>1187</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18">
       <c r="A20" s="1" t="s">
-        <v>1105</v>
+        <v>1090</v>
       </c>
       <c r="B20" t="s">
-        <v>1188</v>
+        <v>1173</v>
       </c>
       <c r="C20" t="s">
-        <v>1189</v>
+        <v>1174</v>
       </c>
       <c r="D20" t="s">
-        <v>1190</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
       <c r="A21" s="1" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="B21" t="s">
-        <v>1191</v>
+        <v>1176</v>
       </c>
       <c r="C21" t="s">
-        <v>1192</v>
+        <v>1177</v>
       </c>
       <c r="D21" t="s">
-        <v>1193</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18">
       <c r="A22" s="1" t="s">
-        <v>1107</v>
+        <v>1092</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -10061,49 +10076,49 @@
     </row>
     <row r="23" spans="1:4" ht="18">
       <c r="A23" s="1" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="B23" t="s">
-        <v>1194</v>
+        <v>1179</v>
       </c>
       <c r="C23" t="s">
-        <v>1195</v>
+        <v>1180</v>
       </c>
       <c r="D23" t="s">
-        <v>1196</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
       <c r="A24" s="1" t="s">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="B24" t="s">
-        <v>1197</v>
+        <v>1182</v>
       </c>
       <c r="C24" t="s">
-        <v>1198</v>
+        <v>1183</v>
       </c>
       <c r="D24" t="s">
-        <v>1199</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17">
       <c r="A25" s="3" t="s">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="B25" t="s">
-        <v>1200</v>
+        <v>1185</v>
       </c>
       <c r="C25" t="s">
-        <v>1201</v>
+        <v>1186</v>
       </c>
       <c r="D25" t="s">
-        <v>1202</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18">
       <c r="A26" s="1" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -10111,7 +10126,7 @@
     </row>
     <row r="27" spans="1:4" ht="18">
       <c r="A27" s="1" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -10125,21 +10140,21 @@
     </row>
     <row r="28" spans="1:4" ht="18">
       <c r="A28" s="1" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="B28" t="s">
-        <v>1203</v>
+        <v>1188</v>
       </c>
       <c r="C28" t="s">
-        <v>1204</v>
+        <v>1189</v>
       </c>
       <c r="D28" t="s">
-        <v>1205</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18">
       <c r="A29" s="1" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -10147,7 +10162,7 @@
     </row>
     <row r="30" spans="1:4" ht="18">
       <c r="A30" s="1" t="s">
-        <v>1115</v>
+        <v>1100</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -10155,35 +10170,35 @@
     </row>
     <row r="31" spans="1:4" ht="18">
       <c r="A31" s="1" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
       <c r="B31" t="s">
-        <v>1206</v>
+        <v>1191</v>
       </c>
       <c r="C31" t="s">
-        <v>1207</v>
+        <v>1192</v>
       </c>
       <c r="D31" t="s">
-        <v>1208</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18">
       <c r="A32" s="1" t="s">
-        <v>1117</v>
+        <v>1102</v>
       </c>
       <c r="B32" t="s">
-        <v>1209</v>
+        <v>1194</v>
       </c>
       <c r="C32" t="s">
-        <v>1210</v>
+        <v>1195</v>
       </c>
       <c r="D32" t="s">
-        <v>1211</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18">
       <c r="A33" s="1" t="s">
-        <v>1118</v>
+        <v>1103</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -10191,548 +10206,548 @@
     </row>
     <row r="34" spans="1:4" ht="18">
       <c r="A34" s="1" t="s">
-        <v>1119</v>
+        <v>1104</v>
       </c>
       <c r="B34" t="s">
-        <v>1212</v>
+        <v>1197</v>
       </c>
       <c r="C34" t="s">
-        <v>1213</v>
+        <v>1198</v>
       </c>
       <c r="D34" t="s">
-        <v>1214</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18">
       <c r="A35" s="1" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="B35" t="s">
-        <v>1215</v>
+        <v>1200</v>
       </c>
       <c r="C35" t="s">
-        <v>1216</v>
+        <v>1201</v>
       </c>
       <c r="D35" t="s">
-        <v>1217</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18">
       <c r="A36" s="1" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="B36" t="s">
-        <v>1218</v>
+        <v>1203</v>
       </c>
       <c r="C36" t="s">
-        <v>1219</v>
+        <v>1204</v>
       </c>
       <c r="D36" t="s">
-        <v>1220</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18">
       <c r="A37" s="1" t="s">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="B37" t="s">
-        <v>1221</v>
+        <v>1206</v>
       </c>
       <c r="C37" t="s">
-        <v>1222</v>
+        <v>1207</v>
       </c>
       <c r="D37" t="s">
-        <v>1223</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18">
       <c r="A38" s="1" t="s">
-        <v>1123</v>
+        <v>1108</v>
       </c>
       <c r="B38" t="s">
-        <v>1224</v>
+        <v>1209</v>
       </c>
       <c r="C38" t="s">
-        <v>1225</v>
+        <v>1210</v>
       </c>
       <c r="D38" t="s">
-        <v>1226</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18">
       <c r="A39" s="1" t="s">
-        <v>1124</v>
+        <v>1109</v>
       </c>
       <c r="B39" t="s">
-        <v>1227</v>
+        <v>1212</v>
       </c>
       <c r="C39" t="s">
-        <v>1228</v>
+        <v>1213</v>
       </c>
       <c r="D39" t="s">
-        <v>1229</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18">
       <c r="A40" s="1" t="s">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="B40" t="s">
-        <v>1230</v>
+        <v>1215</v>
       </c>
       <c r="C40" t="s">
-        <v>1231</v>
+        <v>1216</v>
       </c>
       <c r="D40" t="s">
-        <v>1232</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17">
       <c r="A41" s="3" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="B41" t="s">
-        <v>1233</v>
+        <v>1218</v>
       </c>
       <c r="C41" t="s">
-        <v>1234</v>
+        <v>1219</v>
       </c>
       <c r="D41" t="s">
-        <v>1235</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18">
       <c r="A42" s="1" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
       <c r="B42" t="s">
-        <v>1236</v>
+        <v>1221</v>
       </c>
       <c r="C42" t="s">
-        <v>1237</v>
+        <v>1222</v>
       </c>
       <c r="D42" t="s">
-        <v>1238</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18">
       <c r="A43" s="1" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="B43" t="s">
-        <v>1239</v>
+        <v>1224</v>
       </c>
       <c r="C43" t="s">
-        <v>1240</v>
+        <v>1225</v>
       </c>
       <c r="D43" t="s">
-        <v>1241</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18">
       <c r="A44" s="1" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="B44" t="s">
-        <v>1242</v>
+        <v>1227</v>
       </c>
       <c r="C44" t="s">
-        <v>1243</v>
+        <v>1228</v>
       </c>
       <c r="D44" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18">
       <c r="A45" s="1" t="s">
-        <v>1130</v>
+        <v>1115</v>
       </c>
       <c r="B45" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="C45" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
       <c r="D45" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18">
       <c r="A46" s="1" t="s">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="B46" t="s">
-        <v>1320</v>
+        <v>1305</v>
       </c>
       <c r="C46" t="s">
-        <v>1321</v>
+        <v>1306</v>
       </c>
       <c r="D46" t="s">
-        <v>1322</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18">
       <c r="A47" s="1" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="B47" t="s">
-        <v>1248</v>
+        <v>1233</v>
       </c>
       <c r="C47" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="D47" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18">
       <c r="A48" s="1" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
       <c r="B48" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="C48" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="D48" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18">
       <c r="A49" s="1" t="s">
-        <v>1134</v>
+        <v>1119</v>
       </c>
       <c r="B49" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="C49" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="D49" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18">
       <c r="A50" s="1" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
       <c r="B50" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="C50" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
       <c r="D50" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18">
       <c r="A51" s="1" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="B51" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="C51" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
       <c r="D51" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17">
       <c r="A52" s="3" t="s">
-        <v>1137</v>
+        <v>1122</v>
       </c>
       <c r="B52" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="C52" t="s">
-        <v>1264</v>
+        <v>1249</v>
       </c>
       <c r="D52" t="s">
-        <v>1265</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17">
       <c r="A53" s="3" t="s">
-        <v>1138</v>
+        <v>1123</v>
       </c>
       <c r="B53" t="s">
-        <v>1266</v>
+        <v>1251</v>
       </c>
       <c r="C53" t="s">
-        <v>1267</v>
+        <v>1252</v>
       </c>
       <c r="D53" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18">
       <c r="A54" s="1" t="s">
-        <v>1139</v>
+        <v>1124</v>
       </c>
       <c r="B54" t="s">
-        <v>1269</v>
+        <v>1254</v>
       </c>
       <c r="C54" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="D54" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18">
       <c r="A55" s="1" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
       <c r="B55" t="s">
-        <v>1323</v>
+        <v>1308</v>
       </c>
       <c r="C55" t="s">
-        <v>1324</v>
+        <v>1309</v>
       </c>
       <c r="D55" t="s">
-        <v>1325</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17">
       <c r="A56" s="3" t="s">
-        <v>1141</v>
+        <v>1126</v>
       </c>
       <c r="B56" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="C56" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="D56" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18">
       <c r="A57" s="1" t="s">
-        <v>1142</v>
+        <v>1127</v>
       </c>
       <c r="B57" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="C57" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="D57" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18">
       <c r="A58" s="1" t="s">
-        <v>1143</v>
+        <v>1128</v>
       </c>
       <c r="B58" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="C58" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
       <c r="D58" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18">
       <c r="A59" s="1" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
       <c r="B59" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="C59" t="s">
-        <v>1282</v>
+        <v>1267</v>
       </c>
       <c r="D59" t="s">
-        <v>1283</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18">
       <c r="A60" s="1" t="s">
-        <v>1145</v>
+        <v>1130</v>
       </c>
       <c r="B60" t="s">
-        <v>1284</v>
+        <v>1269</v>
       </c>
       <c r="C60" t="s">
-        <v>1285</v>
+        <v>1270</v>
       </c>
       <c r="D60" t="s">
-        <v>1286</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18">
       <c r="A61" s="1" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="B61" t="s">
-        <v>1287</v>
+        <v>1272</v>
       </c>
       <c r="C61" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="D61" t="s">
-        <v>1289</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18">
       <c r="A62" s="1" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
       <c r="B62" t="s">
-        <v>1326</v>
+        <v>1311</v>
       </c>
       <c r="C62" t="s">
-        <v>1327</v>
+        <v>1312</v>
       </c>
       <c r="D62" t="s">
-        <v>1328</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18">
       <c r="A63" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="B63" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="C63" t="s">
-        <v>1291</v>
+        <v>1276</v>
       </c>
       <c r="D63" t="s">
-        <v>1292</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18">
       <c r="A64" s="1" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="B64" t="s">
-        <v>1293</v>
+        <v>1278</v>
       </c>
       <c r="C64" t="s">
-        <v>1294</v>
+        <v>1279</v>
       </c>
       <c r="D64" t="s">
-        <v>1295</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18">
       <c r="A65" s="1" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="B65" t="s">
-        <v>1296</v>
+        <v>1281</v>
       </c>
       <c r="C65" t="s">
-        <v>1297</v>
+        <v>1282</v>
       </c>
       <c r="D65" t="s">
-        <v>1298</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18">
       <c r="A66" s="1" t="s">
-        <v>1151</v>
+        <v>1136</v>
       </c>
       <c r="B66" t="s">
-        <v>1299</v>
+        <v>1284</v>
       </c>
       <c r="C66" t="s">
-        <v>1300</v>
+        <v>1285</v>
       </c>
       <c r="D66" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18">
       <c r="A67" s="1" t="s">
-        <v>1152</v>
+        <v>1137</v>
       </c>
       <c r="B67" t="s">
-        <v>1302</v>
+        <v>1287</v>
       </c>
       <c r="C67" t="s">
-        <v>1303</v>
+        <v>1288</v>
       </c>
       <c r="D67" t="s">
-        <v>1304</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18">
       <c r="A68" s="1" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
       <c r="B68" t="s">
-        <v>1305</v>
+        <v>1290</v>
       </c>
       <c r="C68" t="s">
-        <v>1306</v>
+        <v>1291</v>
       </c>
       <c r="D68" t="s">
-        <v>1307</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18">
       <c r="A69" s="1" t="s">
-        <v>1154</v>
+        <v>1139</v>
       </c>
       <c r="B69" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
       <c r="C69" t="s">
-        <v>1309</v>
+        <v>1294</v>
       </c>
       <c r="D69" t="s">
-        <v>1310</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18">
       <c r="A70" s="1" t="s">
-        <v>1155</v>
+        <v>1140</v>
       </c>
       <c r="B70" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="C70" t="s">
-        <v>1312</v>
+        <v>1297</v>
       </c>
       <c r="D70" t="s">
-        <v>1313</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18">
       <c r="A71" s="1" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="B71" t="s">
-        <v>1314</v>
+        <v>1299</v>
       </c>
       <c r="C71" t="s">
-        <v>1315</v>
+        <v>1300</v>
       </c>
       <c r="D71" t="s">
-        <v>1316</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="B72" t="s">
-        <v>1317</v>
+        <v>1302</v>
       </c>
       <c r="C72" t="s">
-        <v>1318</v>
+        <v>1303</v>
       </c>
       <c r="D72" t="s">
-        <v>1319</v>
+        <v>1304</v>
       </c>
     </row>
   </sheetData>
@@ -10771,30 +10786,30 @@
     </row>
     <row r="2" spans="1:4" ht="18">
       <c r="A2" s="1" t="s">
-        <v>1332</v>
+        <v>1317</v>
       </c>
       <c r="B2" t="s">
-        <v>1570</v>
+        <v>1555</v>
       </c>
       <c r="C2" t="s">
-        <v>1451</v>
+        <v>1436</v>
       </c>
       <c r="D2" t="s">
-        <v>1510</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18">
       <c r="A3" s="1" t="s">
-        <v>1333</v>
+        <v>1318</v>
       </c>
       <c r="B3" t="s">
-        <v>1392</v>
+        <v>1377</v>
       </c>
       <c r="C3" t="s">
-        <v>1452</v>
+        <v>1437</v>
       </c>
       <c r="D3" t="s">
-        <v>1511</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18">
@@ -10807,259 +10822,259 @@
     </row>
     <row r="5" spans="1:4" ht="18">
       <c r="A5" s="1" t="s">
-        <v>1334</v>
+        <v>1319</v>
       </c>
       <c r="B5" t="s">
-        <v>1393</v>
+        <v>1378</v>
       </c>
       <c r="C5" t="s">
-        <v>1453</v>
+        <v>1438</v>
       </c>
       <c r="D5" t="s">
-        <v>1512</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18">
       <c r="A6" s="1" t="s">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="B6" t="s">
-        <v>1394</v>
+        <v>1379</v>
       </c>
       <c r="C6" t="s">
-        <v>1454</v>
+        <v>1439</v>
       </c>
       <c r="D6" t="s">
-        <v>1513</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17">
       <c r="A7" s="3" t="s">
-        <v>1336</v>
+        <v>1321</v>
       </c>
       <c r="B7" t="s">
-        <v>1395</v>
+        <v>1380</v>
       </c>
       <c r="C7" t="s">
-        <v>1455</v>
+        <v>1440</v>
       </c>
       <c r="D7" t="s">
-        <v>1514</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18">
       <c r="A8" s="1" t="s">
-        <v>1337</v>
+        <v>1322</v>
       </c>
       <c r="B8" t="s">
-        <v>1396</v>
+        <v>1381</v>
       </c>
       <c r="C8" t="s">
-        <v>1456</v>
+        <v>1441</v>
       </c>
       <c r="D8" t="s">
-        <v>1515</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18">
       <c r="A9" s="1" t="s">
-        <v>1338</v>
+        <v>1323</v>
       </c>
       <c r="B9" t="s">
-        <v>1397</v>
+        <v>1382</v>
       </c>
       <c r="C9" t="s">
-        <v>1457</v>
+        <v>1442</v>
       </c>
       <c r="D9" t="s">
-        <v>1516</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18">
       <c r="A10" s="1" t="s">
-        <v>1339</v>
+        <v>1324</v>
       </c>
       <c r="B10" t="s">
-        <v>1398</v>
+        <v>1383</v>
       </c>
       <c r="C10" t="s">
-        <v>1458</v>
+        <v>1443</v>
       </c>
       <c r="D10" t="s">
-        <v>1517</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18">
       <c r="A11" s="1" t="s">
-        <v>1340</v>
+        <v>1325</v>
       </c>
       <c r="B11" t="s">
-        <v>1399</v>
+        <v>1384</v>
       </c>
       <c r="C11" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="D11" t="s">
-        <v>1518</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
       <c r="A12" s="6" t="s">
-        <v>1341</v>
+        <v>1326</v>
       </c>
       <c r="B12" t="s">
-        <v>1400</v>
+        <v>1385</v>
       </c>
       <c r="C12" t="s">
-        <v>1460</v>
+        <v>1445</v>
       </c>
       <c r="D12" t="s">
-        <v>1519</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18">
       <c r="A13" s="1" t="s">
-        <v>1342</v>
+        <v>1327</v>
       </c>
       <c r="B13" t="s">
-        <v>1401</v>
+        <v>1386</v>
       </c>
       <c r="C13" t="s">
-        <v>1461</v>
+        <v>1446</v>
       </c>
       <c r="D13" t="s">
-        <v>1520</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18">
       <c r="A14" s="1" t="s">
-        <v>1343</v>
+        <v>1328</v>
       </c>
       <c r="B14" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
       <c r="C14" t="s">
-        <v>1462</v>
+        <v>1447</v>
       </c>
       <c r="D14" t="s">
-        <v>1521</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18">
       <c r="A15" s="2" t="s">
-        <v>1344</v>
+        <v>1329</v>
       </c>
       <c r="B15" t="s">
-        <v>1403</v>
+        <v>1388</v>
       </c>
       <c r="C15" t="s">
-        <v>1463</v>
+        <v>1448</v>
       </c>
       <c r="D15" t="s">
-        <v>1522</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18">
       <c r="A16" s="1" t="s">
-        <v>1345</v>
+        <v>1330</v>
       </c>
       <c r="B16" t="s">
-        <v>1404</v>
+        <v>1389</v>
       </c>
       <c r="C16" t="s">
-        <v>1464</v>
+        <v>1449</v>
       </c>
       <c r="D16" t="s">
-        <v>1523</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
       <c r="A17" s="1" t="s">
-        <v>1346</v>
+        <v>1331</v>
       </c>
       <c r="B17" t="s">
-        <v>1405</v>
+        <v>1390</v>
       </c>
       <c r="C17" t="s">
-        <v>1465</v>
+        <v>1450</v>
       </c>
       <c r="D17" t="s">
-        <v>1524</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18">
       <c r="A18" s="1" t="s">
-        <v>1347</v>
+        <v>1332</v>
       </c>
       <c r="B18" t="s">
-        <v>1406</v>
+        <v>1391</v>
       </c>
       <c r="C18" t="s">
-        <v>1466</v>
+        <v>1451</v>
       </c>
       <c r="D18" t="s">
-        <v>1525</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19" s="1" t="s">
-        <v>1348</v>
+        <v>1333</v>
       </c>
       <c r="B19" t="s">
-        <v>1407</v>
+        <v>1392</v>
       </c>
       <c r="C19" t="s">
-        <v>1467</v>
+        <v>1452</v>
       </c>
       <c r="D19" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18">
       <c r="A20" s="1" t="s">
-        <v>1349</v>
+        <v>1334</v>
       </c>
       <c r="B20" t="s">
-        <v>1408</v>
+        <v>1393</v>
       </c>
       <c r="C20" t="s">
-        <v>1468</v>
+        <v>1453</v>
       </c>
       <c r="D20" t="s">
-        <v>1527</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
       <c r="A21" s="1" t="s">
-        <v>1350</v>
+        <v>1335</v>
       </c>
       <c r="B21" t="s">
-        <v>1409</v>
+        <v>1394</v>
       </c>
       <c r="C21" t="s">
-        <v>1469</v>
+        <v>1454</v>
       </c>
       <c r="D21" t="s">
-        <v>1528</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18">
       <c r="A22" s="1" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
       <c r="B22" t="s">
-        <v>1410</v>
+        <v>1395</v>
       </c>
       <c r="C22" t="s">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="D22" t="s">
-        <v>1529</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18">
       <c r="A23" s="1" t="s">
-        <v>1352</v>
+        <v>1337</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -11067,113 +11082,113 @@
     </row>
     <row r="24" spans="1:4" ht="18">
       <c r="A24" s="1" t="s">
-        <v>1353</v>
+        <v>1338</v>
       </c>
       <c r="B24" t="s">
-        <v>1411</v>
+        <v>1396</v>
       </c>
       <c r="C24" t="s">
-        <v>1471</v>
+        <v>1456</v>
       </c>
       <c r="D24" t="s">
-        <v>1530</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
       <c r="A25" s="1" t="s">
-        <v>1354</v>
+        <v>1339</v>
       </c>
       <c r="B25" t="s">
-        <v>1412</v>
+        <v>1397</v>
       </c>
       <c r="C25" t="s">
-        <v>1472</v>
+        <v>1457</v>
       </c>
       <c r="D25" t="s">
-        <v>1531</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18">
       <c r="A26" s="1" t="s">
-        <v>1355</v>
+        <v>1340</v>
       </c>
       <c r="B26" t="s">
-        <v>1355</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18">
       <c r="A27" s="1" t="s">
-        <v>1356</v>
+        <v>1341</v>
       </c>
       <c r="B27" t="s">
-        <v>1413</v>
+        <v>1398</v>
       </c>
       <c r="C27" t="s">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="D27" t="s">
-        <v>1532</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18">
       <c r="A28" s="1" t="s">
-        <v>1357</v>
+        <v>1342</v>
       </c>
       <c r="B28" t="s">
-        <v>1414</v>
+        <v>1399</v>
       </c>
       <c r="C28" t="s">
-        <v>1474</v>
+        <v>1459</v>
       </c>
       <c r="D28" t="s">
-        <v>1533</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18">
       <c r="A29" s="1" t="s">
-        <v>1358</v>
+        <v>1343</v>
       </c>
       <c r="B29" t="s">
-        <v>1415</v>
+        <v>1400</v>
       </c>
       <c r="C29" t="s">
-        <v>1475</v>
+        <v>1460</v>
       </c>
       <c r="D29" t="s">
-        <v>1534</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18">
       <c r="A30" s="1" t="s">
-        <v>1359</v>
+        <v>1344</v>
       </c>
       <c r="B30" t="s">
-        <v>1416</v>
+        <v>1401</v>
       </c>
       <c r="C30" t="s">
-        <v>1476</v>
+        <v>1461</v>
       </c>
       <c r="D30" t="s">
-        <v>1535</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18">
       <c r="A31" s="1" t="s">
-        <v>1333</v>
+        <v>1318</v>
       </c>
       <c r="B31" t="s">
-        <v>1417</v>
+        <v>1402</v>
       </c>
       <c r="C31" t="s">
-        <v>1477</v>
+        <v>1462</v>
       </c>
       <c r="D31" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18">
       <c r="A32" s="1" t="s">
-        <v>1360</v>
+        <v>1345</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -11181,466 +11196,466 @@
     </row>
     <row r="33" spans="1:4" ht="18">
       <c r="A33" s="1" t="s">
-        <v>1361</v>
+        <v>1346</v>
       </c>
       <c r="B33" t="s">
-        <v>1418</v>
+        <v>1403</v>
       </c>
       <c r="C33" t="s">
-        <v>1478</v>
+        <v>1463</v>
       </c>
       <c r="D33" t="s">
-        <v>1537</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18">
       <c r="A34" s="1" t="s">
-        <v>1362</v>
+        <v>1347</v>
       </c>
       <c r="B34" t="s">
-        <v>1419</v>
+        <v>1404</v>
       </c>
       <c r="C34" t="s">
-        <v>1479</v>
+        <v>1464</v>
       </c>
       <c r="D34" t="s">
-        <v>1538</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18">
       <c r="A35" s="1" t="s">
-        <v>1363</v>
+        <v>1348</v>
       </c>
       <c r="B35" t="s">
-        <v>1420</v>
+        <v>1405</v>
       </c>
       <c r="C35" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="D35" t="s">
-        <v>1539</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18">
       <c r="A36" s="1" t="s">
-        <v>1364</v>
+        <v>1349</v>
       </c>
       <c r="B36" t="s">
-        <v>1421</v>
+        <v>1406</v>
       </c>
       <c r="C36" t="s">
-        <v>1481</v>
+        <v>1466</v>
       </c>
       <c r="D36" t="s">
-        <v>1540</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18">
       <c r="A37" s="1" t="s">
-        <v>1365</v>
+        <v>1350</v>
       </c>
       <c r="B37" t="s">
-        <v>1422</v>
+        <v>1407</v>
       </c>
       <c r="C37" t="s">
-        <v>1482</v>
+        <v>1467</v>
       </c>
       <c r="D37" t="s">
-        <v>1541</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18">
       <c r="A38" s="1" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B38" t="s">
-        <v>1423</v>
+        <v>1408</v>
       </c>
       <c r="C38" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
       <c r="D38" t="s">
-        <v>1542</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18">
       <c r="A39" s="1" t="s">
-        <v>1366</v>
+        <v>1351</v>
       </c>
       <c r="B39" t="s">
-        <v>1424</v>
+        <v>1409</v>
       </c>
       <c r="C39" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="D39" t="s">
-        <v>1543</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18">
       <c r="A40" s="1" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="B40" t="s">
-        <v>1425</v>
+        <v>1410</v>
       </c>
       <c r="C40" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="D40" t="s">
-        <v>1544</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18">
       <c r="A41" s="1" t="s">
-        <v>1368</v>
+        <v>1353</v>
       </c>
       <c r="B41" t="s">
-        <v>1426</v>
+        <v>1411</v>
       </c>
       <c r="C41" t="s">
-        <v>1486</v>
+        <v>1471</v>
       </c>
       <c r="D41" t="s">
-        <v>1545</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18">
       <c r="A42" s="1" t="s">
-        <v>1369</v>
+        <v>1354</v>
       </c>
       <c r="B42" t="s">
-        <v>1427</v>
+        <v>1412</v>
       </c>
       <c r="C42" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="D42" t="s">
-        <v>1546</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18">
       <c r="A43" s="1" t="s">
-        <v>1370</v>
+        <v>1355</v>
       </c>
       <c r="B43" t="s">
-        <v>1428</v>
+        <v>1413</v>
       </c>
       <c r="C43" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="D43" t="s">
-        <v>1547</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18">
       <c r="A44" s="1" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="B44" t="s">
-        <v>1429</v>
+        <v>1414</v>
       </c>
       <c r="C44" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="D44" t="s">
-        <v>1548</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18">
       <c r="A45" s="1" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="B45" t="s">
-        <v>1430</v>
+        <v>1415</v>
       </c>
       <c r="D45" t="s">
-        <v>1549</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18">
       <c r="A46" s="1" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="B46" t="s">
-        <v>1431</v>
+        <v>1416</v>
       </c>
       <c r="C46" t="s">
-        <v>1490</v>
+        <v>1475</v>
       </c>
       <c r="D46" t="s">
-        <v>1550</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18">
       <c r="A47" s="1" t="s">
-        <v>1374</v>
+        <v>1359</v>
       </c>
       <c r="B47" t="s">
-        <v>1432</v>
+        <v>1417</v>
       </c>
       <c r="C47" t="s">
-        <v>1491</v>
+        <v>1476</v>
       </c>
       <c r="D47" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18">
       <c r="A48" s="1" t="s">
-        <v>1352</v>
+        <v>1337</v>
       </c>
       <c r="B48" t="s">
-        <v>1433</v>
+        <v>1418</v>
       </c>
       <c r="C48" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
       <c r="D48" t="s">
-        <v>1552</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18">
       <c r="A49" s="1" t="s">
-        <v>1375</v>
+        <v>1360</v>
       </c>
       <c r="B49" t="s">
-        <v>1434</v>
+        <v>1419</v>
       </c>
       <c r="C49" t="s">
-        <v>1493</v>
+        <v>1478</v>
       </c>
       <c r="D49" t="s">
-        <v>1553</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18">
       <c r="A50" s="1" t="s">
-        <v>1376</v>
+        <v>1361</v>
       </c>
       <c r="B50" t="s">
-        <v>1435</v>
+        <v>1420</v>
       </c>
       <c r="C50" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="D50" t="s">
-        <v>1554</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18">
       <c r="A51" s="1" t="s">
-        <v>1377</v>
+        <v>1362</v>
       </c>
       <c r="B51" t="s">
-        <v>1436</v>
+        <v>1421</v>
       </c>
       <c r="C51" t="s">
-        <v>1495</v>
+        <v>1480</v>
       </c>
       <c r="D51" t="s">
-        <v>1555</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18">
       <c r="A52" s="1" t="s">
-        <v>1378</v>
+        <v>1363</v>
       </c>
       <c r="B52" t="s">
-        <v>1437</v>
+        <v>1422</v>
       </c>
       <c r="C52" t="s">
-        <v>1496</v>
+        <v>1481</v>
       </c>
       <c r="D52" t="s">
-        <v>1556</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18">
       <c r="A53" s="1" t="s">
-        <v>1379</v>
+        <v>1364</v>
       </c>
       <c r="B53" t="s">
-        <v>1438</v>
+        <v>1423</v>
       </c>
       <c r="C53" t="s">
-        <v>1497</v>
+        <v>1482</v>
       </c>
       <c r="D53" t="s">
-        <v>1557</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18">
       <c r="A54" s="1" t="s">
-        <v>1380</v>
+        <v>1365</v>
       </c>
       <c r="B54" t="s">
-        <v>1439</v>
+        <v>1424</v>
       </c>
       <c r="C54" t="s">
-        <v>1498</v>
+        <v>1483</v>
       </c>
       <c r="D54" t="s">
-        <v>1558</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18">
       <c r="A55" s="1" t="s">
-        <v>1381</v>
+        <v>1366</v>
       </c>
       <c r="B55" t="s">
-        <v>1440</v>
+        <v>1425</v>
       </c>
       <c r="C55" t="s">
-        <v>1499</v>
+        <v>1484</v>
       </c>
       <c r="D55" t="s">
-        <v>1559</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18">
       <c r="A56" s="1" t="s">
-        <v>1382</v>
+        <v>1367</v>
       </c>
       <c r="B56" t="s">
-        <v>1441</v>
+        <v>1426</v>
       </c>
       <c r="C56" t="s">
-        <v>1500</v>
+        <v>1485</v>
       </c>
       <c r="D56" t="s">
-        <v>1560</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18">
       <c r="A57" s="1" t="s">
-        <v>1383</v>
+        <v>1368</v>
       </c>
       <c r="B57" t="s">
-        <v>1442</v>
+        <v>1427</v>
       </c>
       <c r="C57" t="s">
-        <v>1501</v>
+        <v>1486</v>
       </c>
       <c r="D57" t="s">
-        <v>1561</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18">
       <c r="A58" s="1" t="s">
-        <v>1382</v>
+        <v>1367</v>
       </c>
       <c r="B58" t="s">
-        <v>1443</v>
+        <v>1428</v>
       </c>
       <c r="C58" t="s">
-        <v>1502</v>
+        <v>1487</v>
       </c>
       <c r="D58" t="s">
-        <v>1562</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18">
       <c r="A59" s="1" t="s">
-        <v>1384</v>
+        <v>1369</v>
       </c>
       <c r="B59" t="s">
-        <v>1444</v>
+        <v>1429</v>
       </c>
       <c r="C59" t="s">
-        <v>1503</v>
+        <v>1488</v>
       </c>
       <c r="D59" t="s">
-        <v>1563</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18">
       <c r="A60" s="1" t="s">
-        <v>1385</v>
+        <v>1370</v>
       </c>
       <c r="B60" t="s">
-        <v>1445</v>
+        <v>1430</v>
       </c>
       <c r="C60" t="s">
-        <v>1504</v>
+        <v>1489</v>
       </c>
       <c r="D60" t="s">
-        <v>1564</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18">
       <c r="A61" s="1" t="s">
-        <v>1386</v>
+        <v>1371</v>
       </c>
       <c r="B61" t="s">
-        <v>1446</v>
+        <v>1431</v>
       </c>
       <c r="C61" t="s">
-        <v>1505</v>
+        <v>1490</v>
       </c>
       <c r="D61" t="s">
-        <v>1565</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18">
       <c r="A62" s="1" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="B62" t="s">
-        <v>1447</v>
+        <v>1432</v>
       </c>
       <c r="C62" t="s">
-        <v>1506</v>
+        <v>1491</v>
       </c>
       <c r="D62" t="s">
-        <v>1566</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18">
       <c r="A63" s="1" t="s">
-        <v>1388</v>
+        <v>1373</v>
       </c>
       <c r="B63" t="s">
-        <v>1448</v>
+        <v>1433</v>
       </c>
       <c r="C63" t="s">
-        <v>1507</v>
+        <v>1492</v>
       </c>
       <c r="D63" t="s">
-        <v>1567</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18">
       <c r="A64" s="1" t="s">
-        <v>1389</v>
+        <v>1374</v>
       </c>
       <c r="B64" t="s">
-        <v>1449</v>
+        <v>1434</v>
       </c>
       <c r="C64" t="s">
-        <v>1508</v>
+        <v>1493</v>
       </c>
       <c r="D64" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18">
       <c r="A65" s="1" t="s">
-        <v>1390</v>
+        <v>1375</v>
       </c>
       <c r="B65" t="s">
-        <v>1450</v>
+        <v>1435</v>
       </c>
       <c r="C65" t="s">
-        <v>1509</v>
+        <v>1494</v>
       </c>
       <c r="D65" t="s">
-        <v>1569</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18">
       <c r="A66" s="1" t="s">
-        <v>1391</v>
+        <v>1376</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
